--- a/biology/Zoologie/Babina_adenopleura/Babina_adenopleura.xlsx
+++ b/biology/Zoologie/Babina_adenopleura/Babina_adenopleura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Babina adenopleura est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Babina adenopleura est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce se rencontre entre 30 et 1 800 m d'altitude :
 au Japon dans les îles Yaeyama ;
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est semi-aquatique. Elle est ovipare, de couleur verte ou brun clair comme du sable.
 </t>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains auteurs considèrent que Babina caldwelli est synonyme de Babina adenopleura, notamment Fei en 1999[2] et Fei, Hu, Ye &amp;. Huang en 2009[3], toutefois Dubois en 1992[4] y voit une espèce à part entière.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains auteurs considèrent que Babina caldwelli est synonyme de Babina adenopleura, notamment Fei en 1999 et Fei, Hu, Ye &amp;. Huang en 2009, toutefois Dubois en 1992 y voit une espèce à part entière.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1909 : Descriptions of Four new Frogs and a new Snake discovered by Mr. H. Sauter in Formosa.  Annals and Magazine of Natural History, sér. 8, vol. 4, p. 492-495 (texte intégral).</t>
         </is>
